--- a/data/manual_locations.xlsx
+++ b/data/manual_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\IronHack\Semana 4\hellas_db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF2403D-D6BC-4625-B321-55AAE8C1A1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC35203-71DE-4804-95CC-9F11104B53A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="3600" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>original_name</t>
   </si>
@@ -214,16 +214,65 @@
   </si>
   <si>
     <t>Πασάς,ο (νησίς)</t>
+  </si>
+  <si>
+    <t>Στρογγύλη,η (νησίς)</t>
+  </si>
+  <si>
+    <t>Άγιος Γεώργιος,ο (τ.Πανηγυρίστρα,η)</t>
+  </si>
+  <si>
+    <t>Άγιος Νικόλαος,ο</t>
+  </si>
+  <si>
+    <t>Φτέρη,η (τ.Πτέρη,η)</t>
+  </si>
+  <si>
+    <t>Παππαδιανά,τα</t>
+  </si>
+  <si>
+    <t>Πανόραμα,το</t>
+  </si>
+  <si>
+    <t>Καρές,αι</t>
+  </si>
+  <si>
+    <t>Μηλότοπος,ο</t>
+  </si>
+  <si>
+    <t>Λάκκοι,οι</t>
+  </si>
+  <si>
+    <t>Χρυσή Ακτή,η</t>
+  </si>
+  <si>
+    <t>Αμπέλια,τα</t>
+  </si>
+  <si>
+    <t>Παράδεισος,ο</t>
+  </si>
+  <si>
+    <t>Αγία Μαρίνα,η (τ.Λυκοτρίχιον,το)</t>
+  </si>
+  <si>
+    <t>Άγιος Γεώργιος,ο (νησίς)</t>
+  </si>
+  <si>
+    <t>Άγιος Βασίλειος,ο (Δ.Δ.Νεοχωρίου)</t>
+  </si>
+  <si>
+    <t>Άγιοι Θεόδωροι,οι</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +303,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +335,20 @@
         <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -378,11 +445,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,7 +494,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -408,11 +502,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +641,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B76801D-D1A7-4D4D-B44F-ED46201C3C69}" name="Tabla1" displayName="Tabla1" ref="A1:E71" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E71" xr:uid="{4B76801D-D1A7-4D4D-B44F-ED46201C3C69}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E71">
-    <sortCondition ref="A1:A71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B76801D-D1A7-4D4D-B44F-ED46201C3C69}" name="Tabla1" displayName="Tabla1" ref="A1:E93" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E93" xr:uid="{4B76801D-D1A7-4D4D-B44F-ED46201C3C69}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E93">
+    <sortCondition ref="A1:A93"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{66037729-11D0-4456-9B06-83E5D1BCB3B9}" name="index" dataDxfId="1"/>
@@ -811,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,1159 +953,1464 @@
       <c r="A2" s="4">
         <v>390</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="9">
         <v>41.430263519999997</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="22">
         <v>26.558124540000001</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
+        <v>485</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>882</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="5">
         <v>40.668075559999998</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>22.89260101</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>1641</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C5" s="11">
         <v>41.257534030000002</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D5" s="11">
         <v>22.998882290000001</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E5" s="12">
         <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5">
-        <v>40.261650090000003</v>
-      </c>
-      <c r="D5" s="5">
-        <v>21.325370790000001</v>
-      </c>
-      <c r="E5" s="6">
-        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>4243</v>
+        <v>1718</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="9">
-        <v>39.327129999999997</v>
-      </c>
-      <c r="D6" s="9">
-        <v>23.151710000000001</v>
-      </c>
-      <c r="E6" s="11">
-        <v>424</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4575</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="12">
-        <v>39.604850769999999</v>
-      </c>
-      <c r="D7" s="12">
-        <v>21.97900963</v>
-      </c>
-      <c r="E7" s="13">
-        <v>98</v>
+      <c r="A7" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5">
+        <v>40.261650090000003</v>
+      </c>
+      <c r="D7" s="5">
+        <v>21.325370790000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>4834</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="9">
-        <v>38.798648829999998</v>
-      </c>
-      <c r="D8" s="9">
-        <v>22.703491209999999</v>
-      </c>
-      <c r="E8" s="11">
-        <v>29</v>
+        <v>2504</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="21">
+        <v>39.722934719999998</v>
+      </c>
+      <c r="D8" s="21">
+        <v>20.815647129999999</v>
+      </c>
+      <c r="E8" s="28">
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>5011</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="5">
-        <v>38.441791530000003</v>
-      </c>
-      <c r="D9" s="5">
-        <v>23.601749420000001</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
+        <v>2780</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="23">
+        <v>39.58173</v>
+      </c>
+      <c r="D9" s="23">
+        <v>20.541350000000001</v>
+      </c>
+      <c r="E9" s="29">
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5025</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5">
-        <v>38.387577059999998</v>
-      </c>
-      <c r="D10" s="5">
-        <v>23.59308815</v>
-      </c>
-      <c r="E10" s="6">
-        <v>36</v>
-      </c>
+      <c r="A10" s="4">
+        <v>3572</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>5724</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="12">
-        <v>38.566955569999998</v>
-      </c>
-      <c r="D11" s="12">
-        <v>22.022804260000001</v>
-      </c>
-      <c r="E11" s="13">
-        <v>974</v>
+        <v>4243</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="9">
+        <v>39.327129999999997</v>
+      </c>
+      <c r="D11" s="9">
+        <v>23.151710000000001</v>
+      </c>
+      <c r="E11" s="10">
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>5736</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7">
-        <v>38.524173740000002</v>
-      </c>
-      <c r="D12" s="7">
-        <v>22.2026577</v>
-      </c>
-      <c r="E12" s="8">
-        <v>529</v>
-      </c>
+        <v>4523</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>6364</v>
+      <c r="A13" s="4">
+        <v>4575</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="9">
-        <v>38.786159519999998</v>
-      </c>
-      <c r="D13" s="9">
-        <v>20.6124382</v>
-      </c>
-      <c r="E13" s="11">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="C13" s="11">
+        <v>39.604850769999999</v>
+      </c>
+      <c r="D13" s="11">
+        <v>21.97900963</v>
+      </c>
+      <c r="E13" s="12">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>6481</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5">
-        <v>38.299880979999998</v>
-      </c>
-      <c r="D14" s="5">
-        <v>21.79375267</v>
-      </c>
-      <c r="E14" s="6">
-        <v>25</v>
+      <c r="A14" s="4">
+        <v>4834</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="9">
+        <v>38.798648829999998</v>
+      </c>
+      <c r="D14" s="9">
+        <v>22.703491209999999</v>
+      </c>
+      <c r="E14" s="10">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>6744</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
+      <c r="A15" s="4">
+        <v>5011</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="5">
-        <v>38.098613739999998</v>
+        <v>38.441791530000003</v>
       </c>
       <c r="D15" s="5">
-        <v>21.781131739999999</v>
+        <v>23.601749420000001</v>
       </c>
       <c r="E15" s="6">
-        <v>318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>6763</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="12">
-        <v>38.034370420000002</v>
-      </c>
-      <c r="D16" s="12">
-        <v>21.725038529999999</v>
-      </c>
-      <c r="E16" s="13">
-        <v>219</v>
+      <c r="A16" s="3">
+        <v>5025</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <v>38.387577059999998</v>
+      </c>
+      <c r="D16" s="5">
+        <v>23.59308815</v>
+      </c>
+      <c r="E16" s="6">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>7031</v>
+        <v>5053</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="9">
-        <v>38.854099269999999</v>
-      </c>
-      <c r="D17" s="9">
-        <v>20.980064389999999</v>
-      </c>
-      <c r="E17" s="11">
-        <v>426</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>7076</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="12">
-        <v>38.630977629999997</v>
-      </c>
-      <c r="D18" s="12">
-        <v>21.395023349999999</v>
-      </c>
-      <c r="E18" s="13">
-        <v>80</v>
+      <c r="A18" s="4">
+        <v>5092</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="27">
+        <v>38.512222000000001</v>
+      </c>
+      <c r="D18" s="21">
+        <v>23.856133</v>
+      </c>
+      <c r="E18" s="28">
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>7117</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="12">
-        <v>38.504539489999999</v>
-      </c>
-      <c r="D19" s="12">
-        <v>21.58404732</v>
-      </c>
-      <c r="E19" s="13">
-        <v>359</v>
+      <c r="A19" s="4">
+        <v>5150</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="23">
+        <v>35.311639999999997</v>
+      </c>
+      <c r="D19" s="23">
+        <v>23.70684</v>
+      </c>
+      <c r="E19" s="29">
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>7150</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>38.687248230000002</v>
-      </c>
-      <c r="D20" s="7">
-        <v>21.527082440000001</v>
-      </c>
-      <c r="E20" s="8">
-        <v>570</v>
+        <v>5320</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="23">
+        <v>35.2943</v>
+      </c>
+      <c r="D20" s="23">
+        <v>24.18477</v>
+      </c>
+      <c r="E20" s="29">
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>7165</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="9">
-        <v>38.621742249999997</v>
-      </c>
-      <c r="D21" s="9">
-        <v>21.61232948</v>
-      </c>
-      <c r="E21" s="11">
-        <v>657</v>
+        <v>5724</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="11">
+        <v>38.566955569999998</v>
+      </c>
+      <c r="D21" s="11">
+        <v>22.022804260000001</v>
+      </c>
+      <c r="E21" s="12">
+        <v>974</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>7177</v>
+        <v>5736</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
-        <v>38.646373750000002</v>
+        <v>38.524173740000002</v>
       </c>
       <c r="D22" s="7">
-        <v>21.528083800000001</v>
+        <v>22.2026577</v>
       </c>
       <c r="E22" s="8">
-        <v>713</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>7235</v>
+      <c r="A23" s="3">
+        <v>6364</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C23" s="9">
-        <v>38.681758879999997</v>
+        <v>38.786159519999998</v>
       </c>
       <c r="D23" s="9">
-        <v>21.264362340000002</v>
-      </c>
-      <c r="E23" s="11">
-        <v>54</v>
+        <v>20.6124382</v>
+      </c>
+      <c r="E23" s="10">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>7417</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="5">
-        <v>38.419757840000003</v>
-      </c>
-      <c r="D24" s="5">
-        <v>21.862834929999998</v>
-      </c>
-      <c r="E24" s="6">
-        <v>183</v>
+        <v>6461</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="21">
+        <v>38.159782409999998</v>
+      </c>
+      <c r="D24" s="21">
+        <v>21.725467680000001</v>
+      </c>
+      <c r="E24" s="28">
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>7472</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7">
-        <v>38.659229279999998</v>
-      </c>
-      <c r="D25" s="7">
-        <v>21.834703449999999</v>
-      </c>
-      <c r="E25" s="8">
-        <v>632</v>
+      <c r="A25" s="3">
+        <v>6481</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="5">
+        <v>38.299880979999998</v>
+      </c>
+      <c r="D25" s="5">
+        <v>21.79375267</v>
+      </c>
+      <c r="E25" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>7513</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>6</v>
+      <c r="A26" s="3">
+        <v>6744</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="5">
-        <v>38.35016632</v>
+        <v>38.098613739999998</v>
       </c>
       <c r="D26" s="5">
-        <v>21.559768680000001</v>
+        <v>21.781131739999999</v>
       </c>
       <c r="E26" s="6">
-        <v>17</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>7549</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="19">
-        <v>37.700668329999999</v>
-      </c>
-      <c r="D27" s="19">
-        <v>21.433532710000001</v>
-      </c>
-      <c r="E27" s="10">
-        <v>68</v>
+        <v>6763</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="25">
+        <v>38.034370420000002</v>
+      </c>
+      <c r="D27" s="25">
+        <v>21.725038529999999</v>
+      </c>
+      <c r="E27" s="35">
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>7926</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="12">
-        <v>37.43576813</v>
-      </c>
-      <c r="D28" s="12">
-        <v>21.657796860000001</v>
-      </c>
-      <c r="E28" s="13">
-        <v>10</v>
+        <v>6943</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="21">
+        <v>37.820064539999997</v>
+      </c>
+      <c r="D28" s="21">
+        <v>22.087343220000001</v>
+      </c>
+      <c r="E28" s="28">
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>8581</v>
+        <v>7031</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C29" s="9">
-        <v>37.386821750000003</v>
+        <v>38.854099269999999</v>
       </c>
       <c r="D29" s="9">
-        <v>23.09873009</v>
-      </c>
-      <c r="E29" s="11">
+        <v>20.980064389999999</v>
+      </c>
+      <c r="E29" s="10">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>7076</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>8942</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="14">
-        <v>36.986942290000002</v>
-      </c>
-      <c r="D30" s="14">
-        <v>22.460517880000001</v>
-      </c>
-      <c r="E30" s="14">
-        <v>214</v>
+      <c r="C30" s="15">
+        <v>38.630977629999997</v>
+      </c>
+      <c r="D30" s="15">
+        <v>21.395023349999999</v>
+      </c>
+      <c r="E30" s="15">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>9875</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="17">
-        <v>37.949478149999997</v>
-      </c>
-      <c r="D31" s="17">
-        <v>23.729303359999999</v>
-      </c>
-      <c r="E31" s="17">
-        <v>94</v>
+      <c r="A31" s="3">
+        <v>7117</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="15">
+        <v>38.504539489999999</v>
+      </c>
+      <c r="D31" s="15">
+        <v>21.58404732</v>
+      </c>
+      <c r="E31" s="15">
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>9884</v>
+        <v>7150</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>38.006809230000002</v>
+        <v>38.687248230000002</v>
       </c>
       <c r="D32" s="7">
-        <v>23.824012759999999</v>
+        <v>21.527082440000001</v>
       </c>
       <c r="E32" s="8">
-        <v>225</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>9886</v>
+        <v>7165</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="12">
-        <v>38.044307709999998</v>
-      </c>
-      <c r="D33" s="12">
-        <v>23.76541138</v>
-      </c>
-      <c r="E33" s="13">
-        <v>153</v>
+        <v>13</v>
+      </c>
+      <c r="C33" s="9">
+        <v>38.621742249999997</v>
+      </c>
+      <c r="D33" s="9">
+        <v>21.61232948</v>
+      </c>
+      <c r="E33" s="10">
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>9892</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="12">
-        <v>38.058879849999997</v>
-      </c>
-      <c r="D34" s="12">
-        <v>23.760154719999999</v>
-      </c>
-      <c r="E34" s="13">
-        <v>163</v>
+        <v>7177</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="7">
+        <v>38.646373750000002</v>
+      </c>
+      <c r="D34" s="7">
+        <v>21.528083800000001</v>
+      </c>
+      <c r="E34" s="8">
+        <v>713</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>9893</v>
+        <v>7235</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C35" s="9">
-        <v>38.039749149999999</v>
+        <v>38.681758879999997</v>
       </c>
       <c r="D35" s="9">
-        <v>23.753261569999999</v>
-      </c>
-      <c r="E35" s="11">
-        <v>126</v>
+        <v>21.264362340000002</v>
+      </c>
+      <c r="E35" s="10">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>9904</v>
+        <v>7417</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="7">
-        <v>38.008663179999999</v>
-      </c>
-      <c r="D36" s="7">
-        <v>23.69436455</v>
-      </c>
-      <c r="E36" s="8">
-        <v>68</v>
+        <v>12</v>
+      </c>
+      <c r="C36" s="5">
+        <v>38.419757840000003</v>
+      </c>
+      <c r="D36" s="5">
+        <v>21.862834929999998</v>
+      </c>
+      <c r="E36" s="6">
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>9905</v>
+        <v>7472</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="5">
-        <v>37.989448549999999</v>
-      </c>
-      <c r="D37" s="5">
-        <v>23.657218929999999</v>
-      </c>
-      <c r="E37" s="6">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="C37" s="7">
+        <v>38.659229279999998</v>
+      </c>
+      <c r="D37" s="7">
+        <v>21.834703449999999</v>
+      </c>
+      <c r="E37" s="8">
+        <v>632</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>9909</v>
+        <v>7513</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5">
+        <v>38.35016632</v>
+      </c>
+      <c r="D38" s="5">
+        <v>21.559768680000001</v>
+      </c>
+      <c r="E38" s="6">
         <v>17</v>
-      </c>
-      <c r="C38" s="7">
-        <v>38.030647279999997</v>
-      </c>
-      <c r="D38" s="7">
-        <v>23.705070500000001</v>
-      </c>
-      <c r="E38" s="8">
-        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>9913</v>
+        <v>7549</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="5">
-        <v>37.953506470000001</v>
-      </c>
-      <c r="D39" s="5">
-        <v>23.700218199999998</v>
-      </c>
-      <c r="E39" s="6">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="C39" s="7">
+        <v>37.700668329999999</v>
+      </c>
+      <c r="D39" s="7">
+        <v>21.433532710000001</v>
+      </c>
+      <c r="E39" s="8">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>9914</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="5">
-        <v>37.93771744</v>
-      </c>
-      <c r="D40" s="5">
-        <v>23.730358119999998</v>
-      </c>
-      <c r="E40" s="6">
-        <v>79</v>
+        <v>7926</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="11">
+        <v>37.43576813</v>
+      </c>
+      <c r="D40" s="11">
+        <v>21.657796860000001</v>
+      </c>
+      <c r="E40" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>9915</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="12">
-        <v>37.909160610000001</v>
-      </c>
-      <c r="D41" s="12">
-        <v>23.714143750000002</v>
-      </c>
-      <c r="E41" s="13">
-        <v>20</v>
+        <v>8078</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="24">
+        <v>36.828119999999998</v>
+      </c>
+      <c r="D41" s="24">
+        <v>22.439209999999999</v>
+      </c>
+      <c r="E41" s="34">
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>9916</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="12">
-        <v>37.859962459999998</v>
-      </c>
-      <c r="D42" s="12">
-        <v>23.754928589999999</v>
-      </c>
-      <c r="E42" s="13">
-        <v>15</v>
-      </c>
+        <v>8555</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>9924</v>
+        <v>8581</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="18">
-        <v>38.127229999999997</v>
-      </c>
-      <c r="D43" s="18">
-        <v>23.787289999999999</v>
-      </c>
-      <c r="E43" s="8">
-        <v>298</v>
+        <v>26</v>
+      </c>
+      <c r="C43" s="9">
+        <v>37.386821750000003</v>
+      </c>
+      <c r="D43" s="9">
+        <v>23.09873009</v>
+      </c>
+      <c r="E43" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>9941</v>
+        <v>8629</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="9">
-        <v>37.819217680000001</v>
-      </c>
-      <c r="D44" s="9">
-        <v>23.848487850000001</v>
-      </c>
-      <c r="E44" s="11">
-        <v>20</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>9942</v>
+        <v>8942</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="7">
-        <v>37.80572128</v>
-      </c>
-      <c r="D45" s="7">
-        <v>23.865341189999999</v>
-      </c>
-      <c r="E45" s="8">
-        <v>53</v>
+        <v>5</v>
+      </c>
+      <c r="C45" s="5">
+        <v>36.986942290000002</v>
+      </c>
+      <c r="D45" s="5">
+        <v>22.460517880000001</v>
+      </c>
+      <c r="E45" s="6">
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>9955</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="7">
-        <v>37.722961429999998</v>
-      </c>
-      <c r="D46" s="7">
-        <v>24.012224199999999</v>
-      </c>
-      <c r="E46" s="8">
-        <v>166</v>
+        <v>9385</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="21">
+        <v>36.690689089999999</v>
+      </c>
+      <c r="D46" s="21">
+        <v>22.498729709999999</v>
+      </c>
+      <c r="E46" s="28">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>10035</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="9">
-        <v>37.880245209999998</v>
-      </c>
-      <c r="D47" s="9">
-        <v>23.931316379999998</v>
-      </c>
-      <c r="E47" s="11">
-        <v>106</v>
+        <v>9875</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="7">
+        <v>37.949478149999997</v>
+      </c>
+      <c r="D47" s="7">
+        <v>23.729303359999999</v>
+      </c>
+      <c r="E47" s="8">
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>10063</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="12">
-        <v>37.991218570000001</v>
-      </c>
-      <c r="D48" s="12">
-        <v>23.975744250000002</v>
-      </c>
-      <c r="E48" s="13">
-        <v>124</v>
+        <v>9884</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="7">
+        <v>38.006809230000002</v>
+      </c>
+      <c r="D48" s="7">
+        <v>23.824012759999999</v>
+      </c>
+      <c r="E48" s="8">
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>10069</v>
+        <v>9886</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="12">
-        <v>37.963996889999997</v>
-      </c>
-      <c r="D49" s="12">
-        <v>23.978666310000001</v>
-      </c>
-      <c r="E49" s="13">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="C49" s="11">
+        <v>38.044307709999998</v>
+      </c>
+      <c r="D49" s="11">
+        <v>23.76541138</v>
+      </c>
+      <c r="E49" s="12">
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>10117</v>
+        <v>9892</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="9">
-        <v>38.058845519999998</v>
-      </c>
-      <c r="D50" s="9">
-        <v>23.588354110000001</v>
-      </c>
-      <c r="E50" s="11">
         <v>50</v>
+      </c>
+      <c r="C50" s="11">
+        <v>38.058879849999997</v>
+      </c>
+      <c r="D50" s="11">
+        <v>23.760154719999999</v>
+      </c>
+      <c r="E50" s="12">
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>10169</v>
+        <v>9893</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C51" s="9">
-        <v>37.973731989999997</v>
+        <v>38.039749149999999</v>
       </c>
       <c r="D51" s="9">
-        <v>23.650228500000001</v>
-      </c>
-      <c r="E51" s="11">
-        <v>52</v>
+        <v>23.753261569999999</v>
+      </c>
+      <c r="E51" s="10">
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>10172</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="9">
-        <v>37.961387629999997</v>
-      </c>
-      <c r="D52" s="9">
-        <v>23.560142519999999</v>
-      </c>
-      <c r="E52" s="11">
-        <v>7</v>
+        <v>9904</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="7">
+        <v>38.008663179999999</v>
+      </c>
+      <c r="D52" s="7">
+        <v>23.69436455</v>
+      </c>
+      <c r="E52" s="8">
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>10205</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="9">
-        <v>37.326389310000003</v>
-      </c>
-      <c r="D53" s="9">
-        <v>23.49866295</v>
-      </c>
-      <c r="E53" s="11">
-        <v>38</v>
+        <v>9905</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="5">
+        <v>37.989448549999999</v>
+      </c>
+      <c r="D53" s="5">
+        <v>23.657218929999999</v>
+      </c>
+      <c r="E53" s="6">
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>10209</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="12">
-        <v>37.308406830000003</v>
-      </c>
-      <c r="D54" s="12">
-        <v>23.417749400000002</v>
-      </c>
-      <c r="E54" s="12">
-        <v>202</v>
+        <v>9909</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="7">
+        <v>38.030647279999997</v>
+      </c>
+      <c r="D54" s="7">
+        <v>23.705070500000001</v>
+      </c>
+      <c r="E54" s="7">
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>10213</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="15">
-        <v>37.322177889999999</v>
-      </c>
-      <c r="D55" s="15">
-        <v>23.494314190000001</v>
-      </c>
-      <c r="E55" s="15">
-        <v>148</v>
+        <v>9913</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="13">
+        <v>37.953506470000001</v>
+      </c>
+      <c r="D55" s="13">
+        <v>23.700218199999998</v>
+      </c>
+      <c r="E55" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>10221</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="16">
-        <v>37.322223659999999</v>
-      </c>
-      <c r="D56" s="16">
-        <v>23.413091659999999</v>
-      </c>
-      <c r="E56" s="16">
-        <v>3</v>
+        <v>9914</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="13">
+        <v>37.93771744</v>
+      </c>
+      <c r="D56" s="13">
+        <v>23.730358119999998</v>
+      </c>
+      <c r="E56" s="13">
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>10227</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="17">
-        <v>37.707515720000004</v>
-      </c>
-      <c r="D57" s="17">
-        <v>23.343513489999999</v>
-      </c>
-      <c r="E57" s="17">
-        <v>13</v>
+        <v>9915</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="15">
+        <v>37.909160610000001</v>
+      </c>
+      <c r="D57" s="15">
+        <v>23.714143750000002</v>
+      </c>
+      <c r="E57" s="15">
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>10228</v>
+        <v>9916</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="9">
-        <v>37.677574159999999</v>
-      </c>
-      <c r="D58" s="9">
-        <v>23.338500979999999</v>
-      </c>
-      <c r="E58" s="9">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C58" s="11">
+        <v>37.859962459999998</v>
+      </c>
+      <c r="D58" s="11">
+        <v>23.754928589999999</v>
+      </c>
+      <c r="E58" s="11">
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>10229</v>
+        <v>9924</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="12">
-        <v>37.70635223</v>
-      </c>
-      <c r="D59" s="12">
-        <v>23.36006355</v>
-      </c>
-      <c r="E59" s="12">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="C59" s="17">
+        <v>38.127229999999997</v>
+      </c>
+      <c r="D59" s="17">
+        <v>23.787289999999999</v>
+      </c>
+      <c r="E59" s="7">
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>10319</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="9">
-        <v>37.497421260000003</v>
-      </c>
-      <c r="D60" s="9">
-        <v>23.4528389</v>
-      </c>
-      <c r="E60" s="9">
-        <v>18</v>
+        <v>9938</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="21">
+        <v>38.11460495</v>
+      </c>
+      <c r="D60" s="21">
+        <v>23.871715550000001</v>
+      </c>
+      <c r="E60" s="21">
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>10320</v>
+        <v>9941</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="12">
-        <v>37.521251679999999</v>
-      </c>
-      <c r="D61" s="12">
-        <v>23.466705319999999</v>
-      </c>
-      <c r="E61" s="12">
-        <v>134</v>
+        <v>39</v>
+      </c>
+      <c r="C61" s="9">
+        <v>37.819217680000001</v>
+      </c>
+      <c r="D61" s="9">
+        <v>23.848487850000001</v>
+      </c>
+      <c r="E61" s="9">
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>10321</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>34</v>
+        <v>9942</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C62" s="16">
-        <v>37.488361359999999</v>
+        <v>37.80572128</v>
       </c>
       <c r="D62" s="16">
-        <v>23.45816803</v>
+        <v>23.865341189999999</v>
       </c>
       <c r="E62" s="16">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>10324</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="15">
-        <v>37.25165939</v>
-      </c>
-      <c r="D63" s="15">
-        <v>23.116588589999999</v>
-      </c>
-      <c r="E63" s="15">
-        <v>13</v>
+        <v>9955</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="16">
+        <v>37.722961429999998</v>
+      </c>
+      <c r="D63" s="16">
+        <v>24.012224199999999</v>
+      </c>
+      <c r="E63" s="16">
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>10330</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>6</v>
+        <v>10035</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C64" s="14">
-        <v>37.492973329999998</v>
+        <v>37.880245209999998</v>
       </c>
       <c r="D64" s="14">
-        <v>23.447561260000001</v>
+        <v>23.931316379999998</v>
       </c>
       <c r="E64" s="14">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>11389</v>
+        <v>10063</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="9">
-        <v>37.574104310000003</v>
-      </c>
-      <c r="D65" s="9">
-        <v>24.280706410000001</v>
-      </c>
-      <c r="E65" s="9">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="C65" s="11">
+        <v>37.991218570000001</v>
+      </c>
+      <c r="D65" s="11">
+        <v>23.975744250000002</v>
+      </c>
+      <c r="E65" s="11">
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>11434</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="5">
-        <v>36.845424649999998</v>
-      </c>
-      <c r="D66" s="5">
-        <v>27.19927406</v>
-      </c>
-      <c r="E66" s="5">
-        <v>239</v>
+        <v>10069</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="11">
+        <v>37.963996889999997</v>
+      </c>
+      <c r="D66" s="11">
+        <v>23.978666310000001</v>
+      </c>
+      <c r="E66" s="11">
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>12049</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+        <v>10117</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="14">
+        <v>38.058845519999998</v>
+      </c>
+      <c r="D67" s="14">
+        <v>23.588354110000001</v>
+      </c>
+      <c r="E67" s="14">
+        <v>50</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>12973</v>
+        <v>10169</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="16">
-        <v>35.115867610000002</v>
-      </c>
-      <c r="D68" s="16">
-        <v>24.715875629999999</v>
-      </c>
-      <c r="E68" s="16">
-        <v>218</v>
+        <v>45</v>
+      </c>
+      <c r="C68" s="14">
+        <v>37.973731989999997</v>
+      </c>
+      <c r="D68" s="14">
+        <v>23.650228500000001</v>
+      </c>
+      <c r="E68" s="14">
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>9938</v>
-      </c>
-      <c r="B69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69">
-        <v>38.11460495</v>
-      </c>
-      <c r="D69">
-        <v>23.871715550000001</v>
-      </c>
-      <c r="E69">
-        <v>398</v>
+        <v>10172</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="22">
+        <v>37.961387629999997</v>
+      </c>
+      <c r="D69" s="22">
+        <v>23.560142519999999</v>
+      </c>
+      <c r="E69" s="22">
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="18">
+        <v>10205</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="20">
+        <v>37.347019199999998</v>
+      </c>
+      <c r="D70" s="20">
+        <v>23.449157710000001</v>
+      </c>
+      <c r="E70" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="15"/>
+      <c r="A71" s="4">
+        <v>10209</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="25">
+        <v>37.308406830000003</v>
+      </c>
+      <c r="D71" s="25">
+        <v>23.417749400000002</v>
+      </c>
+      <c r="E71" s="25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>10213</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="22">
+        <v>37.322177889999999</v>
+      </c>
+      <c r="D72" s="22">
+        <v>23.494314190000001</v>
+      </c>
+      <c r="E72" s="22">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>10221</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="25">
+        <v>37.322223659999999</v>
+      </c>
+      <c r="D73" s="25">
+        <v>23.413091659999999</v>
+      </c>
+      <c r="E73" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>10227</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="32">
+        <v>37.707515720000004</v>
+      </c>
+      <c r="D74" s="32">
+        <v>23.343513489999999</v>
+      </c>
+      <c r="E74" s="32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>10228</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="22">
+        <v>37.677574159999999</v>
+      </c>
+      <c r="D75" s="22">
+        <v>23.338500979999999</v>
+      </c>
+      <c r="E75" s="22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>10229</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="25">
+        <v>37.70635223</v>
+      </c>
+      <c r="D76" s="25">
+        <v>23.36006355</v>
+      </c>
+      <c r="E76" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>10319</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="30">
+        <v>37.497421260000003</v>
+      </c>
+      <c r="D77" s="30">
+        <v>23.4528389</v>
+      </c>
+      <c r="E77" s="30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>10320</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="25">
+        <v>37.521251679999999</v>
+      </c>
+      <c r="D78" s="25">
+        <v>23.466705319999999</v>
+      </c>
+      <c r="E78" s="25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>10321</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="31">
+        <v>37.488361359999999</v>
+      </c>
+      <c r="D79" s="31">
+        <v>23.45816803</v>
+      </c>
+      <c r="E79" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>10324</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="22">
+        <v>37.25165939</v>
+      </c>
+      <c r="D80" s="22">
+        <v>23.116588589999999</v>
+      </c>
+      <c r="E80" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>10330</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="33">
+        <v>37.492973329999998</v>
+      </c>
+      <c r="D81" s="33">
+        <v>23.447561260000001</v>
+      </c>
+      <c r="E81" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>10383</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="20">
+        <v>36.85286713</v>
+      </c>
+      <c r="D82" s="20">
+        <v>22.675996779999998</v>
+      </c>
+      <c r="E82" s="20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>10550</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="20">
+        <v>39.241111760000003</v>
+      </c>
+      <c r="D83" s="20">
+        <v>26.42713165</v>
+      </c>
+      <c r="E83" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>11297</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>11367</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>11371</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>11389</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="22">
+        <v>37.574104310000003</v>
+      </c>
+      <c r="D87" s="22">
+        <v>24.280706410000001</v>
+      </c>
+      <c r="E87" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>11434</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="26">
+        <v>36.845424649999998</v>
+      </c>
+      <c r="D88" s="26">
+        <v>27.19927406</v>
+      </c>
+      <c r="E88" s="26">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>11893</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>12049</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>12973</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="25">
+        <v>35.115867610000002</v>
+      </c>
+      <c r="D91" s="25">
+        <v>24.715875629999999</v>
+      </c>
+      <c r="E91" s="25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>13553</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
